--- a/VIS/Daten/Fallviskosimeter.xlsx
+++ b/VIS/Daten/Fallviskosimeter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tumde-my.sharepoint.com/personal/kilian_brenner_tum_de/Documents/Studium/Physik/Praktika/Praktikum Teil 1/Git/VIS/Daten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kilian\OneDrive - tum.de\Studium\Physik\Praktika\Praktikum Teil 1\Git\VIS\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C0491C-1551-43E6-8EBE-DD8D4F9AE688}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{C6C0491C-1551-43E6-8EBE-DD8D4F9AE688}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{45147C51-A662-4390-A0B9-8BB4FE78AB5D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" xr2:uid="{D2260217-F583-4E4A-AB1E-443029EB33D6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Fallviskosimeter</t>
   </si>
@@ -55,12 +55,28 @@
   </si>
   <si>
     <t>Dichte</t>
+  </si>
+  <si>
+    <t>Mittelwert:</t>
+  </si>
+  <si>
+    <t>Abweichung:</t>
+  </si>
+  <si>
+    <t>Standardabweichung:</t>
+  </si>
+  <si>
+    <t>Quadriert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,8 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -406,16 +425,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929B3580-8FD4-4E89-ADB0-D9201C01AB63}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.59765625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="6" max="6" width="19.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -514,84 +534,224 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <f>SUM(B19:B33)/15</f>
+        <v>2.8113333333333328</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C19" s="3">
+        <f>ABS(B19-$G$18)</f>
+        <v>8.8666666666667115E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f>C19*C19</f>
+        <v>7.8617777777778581E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C20" s="3">
+        <f t="shared" ref="C20:C33" si="0">ABS(B20-$G$18)</f>
+        <v>1.8666666666667275E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D33" si="1">C20*C20</f>
+        <v>3.4844444444446718E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3333333333327424E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7777777777762021E-6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <f>SQRT(SUM(D19:D33)/14)</f>
+        <v>4.7187568984497018E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>2.133333333333276E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5511111111108665E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>6.1333333333332796E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>3.761777777777712E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8666666666667275E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4844444444446718E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>8.6666666666670444E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>7.5111111111117655E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3333333333327424E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7777777777762021E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>7.1333333333332583E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0884444444443374E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3333333333327424E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7777777777762021E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>7.8666666666667329E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1884444444445484E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3333333333327424E-3</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7777777777762021E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>8.1333333333332813E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>6.6151111111110265E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>8.6666666666670444E-3</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>7.5111111111117655E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>2.83</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8666666666667275E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4844444444446718E-4</v>
       </c>
     </row>
   </sheetData>

--- a/VIS/Daten/Fallviskosimeter.xlsx
+++ b/VIS/Daten/Fallviskosimeter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kilian\OneDrive - tum.de\Studium\Physik\Praktika\Praktikum Teil 1\Git\VIS\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{C6C0491C-1551-43E6-8EBE-DD8D4F9AE688}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{45147C51-A662-4390-A0B9-8BB4FE78AB5D}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{C6C0491C-1551-43E6-8EBE-DD8D4F9AE688}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{7185E467-2A3C-4B25-BE69-5C11E038C6A5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" xr2:uid="{D2260217-F583-4E4A-AB1E-443029EB33D6}"/>
   </bookViews>
@@ -74,8 +74,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -108,8 +108,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -427,23 +427,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929B3580-8FD4-4E89-ADB0-D9201C01AB63}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="6" max="6" width="19.73046875" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -457,7 +457,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -473,7 +473,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -481,7 +481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -497,7 +497,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -506,7 +506,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -514,13 +514,13 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>+-0.0025</f>
         <v>-2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -528,13 +528,13 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15">
         <f>+-0.05</f>
         <v>-0.05</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -552,7 +552,7 @@
         <v>2.8113333333333328</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2.9</v>
       </c>
@@ -565,7 +565,7 @@
         <v>7.8617777777778581E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2.83</v>
       </c>
@@ -578,7 +578,7 @@
         <v>3.4844444444446718E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2.81</v>
       </c>
@@ -598,7 +598,7 @@
         <v>4.7187568984497018E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2.79</v>
       </c>
@@ -611,7 +611,7 @@
         <v>4.5511111111108665E-4</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2.75</v>
       </c>
@@ -624,7 +624,7 @@
         <v>3.761777777777712E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2.83</v>
       </c>
@@ -637,7 +637,7 @@
         <v>3.4844444444446718E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2.82</v>
       </c>
@@ -650,7 +650,7 @@
         <v>7.5111111111117655E-5</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2.81</v>
       </c>
@@ -663,7 +663,7 @@
         <v>1.7777777777762021E-6</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2.74</v>
       </c>
@@ -676,7 +676,7 @@
         <v>5.0884444444443374E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2.81</v>
       </c>
@@ -689,7 +689,7 @@
         <v>1.7777777777762021E-6</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2.89</v>
       </c>
@@ -702,7 +702,7 @@
         <v>6.1884444444445484E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2.81</v>
       </c>
@@ -715,7 +715,7 @@
         <v>1.7777777777762021E-6</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2.73</v>
       </c>
@@ -728,7 +728,7 @@
         <v>6.6151111111110265E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2.82</v>
       </c>
@@ -741,7 +741,7 @@
         <v>7.5111111111117655E-5</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2.83</v>
       </c>
